--- a/spreadsheets/scores_all.xlsx
+++ b/spreadsheets/scores_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\RLdino\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA9228-312B-45F7-AF37-525BD4BE1CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EB856A-55D7-4122-9699-864CDABEB537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scores_all" sheetId="1" r:id="rId1"/>
@@ -540,17 +540,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -686,7 +678,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1804,7 +1796,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1856,7 +1847,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1221353183"/>
@@ -1917,7 +1908,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1221352703"/>
@@ -1958,7 +1949,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2006,7 +1997,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-SE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2094,7 +2085,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2351,7 +2342,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2403,7 +2393,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1228136959"/>
@@ -2462,7 +2452,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1379046351"/>
@@ -2503,7 +2493,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2551,7 +2541,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-SE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2639,7 +2629,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2896,7 +2886,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2948,7 +2937,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1228136959"/>
@@ -3007,7 +2996,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1379046351"/>
@@ -3048,7 +3037,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3096,7 +3085,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-SE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3184,7 +3173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3441,7 +3430,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3493,7 +3481,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1228136959"/>
@@ -3552,7 +3540,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1379046351"/>
@@ -3593,7 +3581,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3641,7 +3629,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-SE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3729,7 +3717,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3986,7 +3974,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4038,7 +4025,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1228136959"/>
@@ -4097,7 +4084,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1379046351"/>
@@ -4138,7 +4125,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4186,7 +4173,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-SE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4274,7 +4261,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4461,7 +4448,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4513,7 +4499,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1228136959"/>
@@ -4572,7 +4558,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1379046351"/>
@@ -4613,7 +4599,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4661,7 +4647,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-SE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4749,7 +4735,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4936,7 +4922,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4988,7 +4973,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1228136959"/>
@@ -5047,7 +5032,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1379046351"/>
@@ -5088,7 +5073,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5136,7 +5121,1316 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-SE"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DQN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="61"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>90</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>110</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>120</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>130</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>140</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>160</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>170</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>180</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>190</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>210</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>220</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>230</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>240</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>250</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>260</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>270</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>280</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>290</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>300</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>310</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>320</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>330</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>340</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>350</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>360</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>370</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>380</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>390</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>410</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>420</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>430</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>440</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>450</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>460</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>470</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>480</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>490</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>500</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>510</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>520</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>530</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>540</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>550</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>560</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>570</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>580</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>590</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>600</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scores_all!$D$2:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-163C-4D66-9720-9A6B032B26F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Human 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="61"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>90</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>110</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>120</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>130</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>140</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>160</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>170</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>180</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>190</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>210</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>220</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>230</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>240</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>250</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>260</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>270</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>280</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>290</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>300</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>310</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>320</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>330</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>340</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>350</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>360</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>370</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>380</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>390</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>410</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>420</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>430</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>440</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>450</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>460</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>470</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>480</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>490</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>500</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>510</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>520</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>530</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>540</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>550</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>560</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>570</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>580</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>590</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>600</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scores_all!$G$2:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-163C-4D66-9720-9A6B032B26F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Human 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="61"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>90</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>110</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>120</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>130</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>140</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>160</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>170</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>180</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>190</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>210</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>220</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>230</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>240</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>250</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>260</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>270</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>280</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>290</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>300</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>310</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>320</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>330</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>340</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>350</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>360</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>370</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>380</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>390</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>410</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>420</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>430</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>440</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>450</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>460</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>470</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>480</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>490</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>500</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>510</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>520</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>530</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>540</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>550</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>560</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>570</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>580</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>590</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>600</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scores_all!$H$2:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-163C-4D66-9720-9A6B032B26F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="20794223"/>
+        <c:axId val="20795183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="20794223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20795183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="20795183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20794223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5427,6 +6721,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -8404,6 +9738,502 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9158,6 +10988,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD19C5CC-19A8-2D21-12AB-C494A2EF824A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9485,8 +11351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J42" workbookViewId="0">
-      <selection activeCell="AE60" sqref="AE60"/>
+    <sheetView tabSelected="1" topLeftCell="G65" workbookViewId="0">
+      <selection activeCell="W79" sqref="W79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9554,7 +11420,7 @@
       <c r="M2">
         <v>34.4</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2">
         <v>30.5</v>
       </c>
     </row>
@@ -9574,7 +11440,7 @@
       <c r="H3" s="1">
         <v>66</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>69</v>
       </c>
       <c r="K3">
@@ -9583,7 +11449,7 @@
       <c r="M3">
         <v>28.7</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3">
         <v>36.799999999999997</v>
       </c>
     </row>
@@ -9603,7 +11469,7 @@
       <c r="H4" s="1">
         <v>67</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4">
         <v>69</v>
       </c>
       <c r="K4">
@@ -9612,7 +11478,7 @@
       <c r="M4">
         <v>47.6</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4">
         <v>32.1</v>
       </c>
     </row>
@@ -9632,7 +11498,7 @@
       <c r="H5" s="1">
         <v>65</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>69</v>
       </c>
       <c r="K5">
@@ -9641,7 +11507,7 @@
       <c r="M5">
         <v>30.7</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5">
         <v>27.9</v>
       </c>
     </row>
@@ -9661,7 +11527,7 @@
       <c r="H6" s="1">
         <v>59</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>69</v>
       </c>
       <c r="K6">
@@ -9670,7 +11536,7 @@
       <c r="M6">
         <v>36.6</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6">
         <v>33.299999999999997</v>
       </c>
     </row>
@@ -9690,7 +11556,7 @@
       <c r="H7" s="1">
         <v>63</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7">
         <v>69</v>
       </c>
       <c r="K7">
@@ -9699,7 +11565,7 @@
       <c r="M7">
         <v>45.3</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7">
         <v>38.700000000000003</v>
       </c>
     </row>
@@ -9719,7 +11585,7 @@
       <c r="H8" s="1">
         <v>66</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>69</v>
       </c>
       <c r="K8">
@@ -9728,7 +11594,7 @@
       <c r="M8">
         <v>42.9</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8">
         <v>40.5</v>
       </c>
     </row>
@@ -9748,7 +11614,7 @@
       <c r="H9" s="1">
         <v>69</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>69</v>
       </c>
       <c r="K9">
@@ -9757,7 +11623,7 @@
       <c r="M9">
         <v>52.2</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9">
         <v>35.299999999999997</v>
       </c>
     </row>
@@ -9781,7 +11647,7 @@
       <c r="H10" s="1">
         <v>41</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>69</v>
       </c>
       <c r="J10">
@@ -9794,7 +11660,7 @@
       <c r="M10">
         <v>33.700000000000003</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10">
         <v>29.5</v>
       </c>
     </row>
@@ -9818,20 +11684,20 @@
       <c r="H11" s="1">
         <v>61</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>69</v>
       </c>
       <c r="K11">
         <v>15.6</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11">
         <f>AVERAGE(E2:E11)</f>
         <v>30.3</v>
       </c>
       <c r="M11">
         <v>37.4</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11">
         <v>35.799999999999997</v>
       </c>
     </row>
@@ -9848,7 +11714,7 @@
       <c r="G12">
         <v>66</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>64</v>
       </c>
       <c r="K12">
@@ -9857,7 +11723,7 @@
       <c r="M12">
         <v>46.4</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12">
         <v>40.4</v>
       </c>
     </row>
@@ -9874,7 +11740,7 @@
       <c r="G13">
         <v>69</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>69</v>
       </c>
       <c r="K13">
@@ -9883,7 +11749,7 @@
       <c r="M13">
         <v>37</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13">
         <v>40.1</v>
       </c>
     </row>
@@ -9900,7 +11766,7 @@
       <c r="G14">
         <v>63</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>63</v>
       </c>
       <c r="K14">
@@ -9909,7 +11775,7 @@
       <c r="M14">
         <v>39.6</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14">
         <v>34.6</v>
       </c>
     </row>
@@ -9926,7 +11792,7 @@
       <c r="G15">
         <v>62</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>69</v>
       </c>
       <c r="K15">
@@ -9935,7 +11801,7 @@
       <c r="M15">
         <v>34.4</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15">
         <v>36.700000000000003</v>
       </c>
     </row>
@@ -9952,7 +11818,7 @@
       <c r="G16">
         <v>65</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>64</v>
       </c>
       <c r="K16">
@@ -9961,7 +11827,7 @@
       <c r="M16">
         <v>33.700000000000003</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16">
         <v>31.4</v>
       </c>
     </row>
@@ -9978,7 +11844,7 @@
       <c r="G17">
         <v>68</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>60</v>
       </c>
       <c r="K17">
@@ -9987,7 +11853,7 @@
       <c r="M17">
         <v>39.200000000000003</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17">
         <v>34.799999999999997</v>
       </c>
     </row>
@@ -10004,7 +11870,7 @@
       <c r="G18">
         <v>65</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>69</v>
       </c>
       <c r="K18">
@@ -10013,7 +11879,7 @@
       <c r="M18">
         <v>31.2</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18">
         <v>52.6</v>
       </c>
     </row>
@@ -10030,7 +11896,7 @@
       <c r="G19">
         <v>63</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>67</v>
       </c>
       <c r="K19">
@@ -10039,7 +11905,7 @@
       <c r="M19">
         <v>46</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19">
         <v>42.5</v>
       </c>
     </row>
@@ -10060,10 +11926,10 @@
       <c r="G20">
         <v>63</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>65</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20">
         <f>AVERAGE(A11:A20)</f>
         <v>11.7</v>
       </c>
@@ -10073,7 +11939,7 @@
       <c r="M20">
         <v>35.700000000000003</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20">
         <v>44.8</v>
       </c>
     </row>
@@ -10094,20 +11960,20 @@
       <c r="G21">
         <v>61</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>66</v>
       </c>
       <c r="K21">
         <v>19.600000000000001</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21">
         <f>AVERAGE(E12:E21)</f>
         <v>34.4</v>
       </c>
       <c r="M21">
         <v>41</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21">
         <v>36.799999999999997</v>
       </c>
     </row>
@@ -10124,7 +11990,7 @@
       <c r="G22">
         <v>63</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>62</v>
       </c>
       <c r="K22">
@@ -10133,7 +11999,7 @@
       <c r="M22">
         <v>45.7</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22">
         <v>35.299999999999997</v>
       </c>
     </row>
@@ -10150,7 +12016,7 @@
       <c r="G23">
         <v>64</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>67</v>
       </c>
       <c r="K23">
@@ -10159,7 +12025,7 @@
       <c r="M23">
         <v>45.9</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23">
         <v>52.7</v>
       </c>
     </row>
@@ -10176,7 +12042,7 @@
       <c r="G24">
         <v>66</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>67</v>
       </c>
       <c r="K24">
@@ -10185,7 +12051,7 @@
       <c r="M24">
         <v>46.6</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24">
         <v>35.299999999999997</v>
       </c>
     </row>
@@ -10202,7 +12068,7 @@
       <c r="G25">
         <v>69</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="1">
         <v>64</v>
       </c>
       <c r="K25">
@@ -10211,7 +12077,7 @@
       <c r="M25">
         <v>44.7</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25">
         <v>34.4</v>
       </c>
     </row>
@@ -10228,7 +12094,7 @@
       <c r="G26">
         <v>66</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1">
         <v>65</v>
       </c>
       <c r="K26">
@@ -10237,7 +12103,7 @@
       <c r="M26">
         <v>33.9</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26">
         <v>48.9</v>
       </c>
     </row>
@@ -10254,7 +12120,7 @@
       <c r="G27">
         <v>62</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="1">
         <v>65</v>
       </c>
       <c r="K27">
@@ -10263,7 +12129,7 @@
       <c r="M27">
         <v>41.7</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27">
         <v>34.200000000000003</v>
       </c>
     </row>
@@ -10280,7 +12146,7 @@
       <c r="G28">
         <v>64</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="1">
         <v>64</v>
       </c>
       <c r="K28">
@@ -10289,7 +12155,7 @@
       <c r="M28">
         <v>41.5</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28">
         <v>35.1</v>
       </c>
     </row>
@@ -10306,7 +12172,7 @@
       <c r="G29">
         <v>66</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="1">
         <v>61</v>
       </c>
       <c r="K29">
@@ -10315,7 +12181,7 @@
       <c r="M29">
         <v>31.9</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29">
         <v>30.2</v>
       </c>
     </row>
@@ -10336,10 +12202,10 @@
       <c r="G30">
         <v>63</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="1">
         <v>69</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30">
         <f>AVERAGE(A21:A30)</f>
         <v>11.4</v>
       </c>
@@ -10349,7 +12215,7 @@
       <c r="M30">
         <v>31.5</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30">
         <v>41.6</v>
       </c>
     </row>
@@ -10370,20 +12236,20 @@
       <c r="G31">
         <v>69</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="1">
         <v>67</v>
       </c>
       <c r="K31">
         <v>21.8</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31">
         <f>AVERAGE(E22:E31)</f>
         <v>28.7</v>
       </c>
       <c r="M31">
         <v>52.7</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31">
         <v>40.5</v>
       </c>
     </row>
@@ -10400,7 +12266,7 @@
       <c r="G32">
         <v>68</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="1">
         <v>65</v>
       </c>
       <c r="K32">
@@ -10409,7 +12275,7 @@
       <c r="M32">
         <v>64.8</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32">
         <v>36.299999999999997</v>
       </c>
     </row>
@@ -10426,7 +12292,7 @@
       <c r="G33">
         <v>69</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="1">
         <v>62</v>
       </c>
       <c r="K33">
@@ -10435,7 +12301,7 @@
       <c r="M33">
         <v>33.6</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33">
         <v>30.4</v>
       </c>
     </row>
@@ -10452,7 +12318,7 @@
       <c r="G34">
         <v>64</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="1">
         <v>67</v>
       </c>
       <c r="K34">
@@ -10461,7 +12327,7 @@
       <c r="M34">
         <v>44.5</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34">
         <v>42.6</v>
       </c>
     </row>
@@ -10478,7 +12344,7 @@
       <c r="G35">
         <v>67</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="1">
         <v>65</v>
       </c>
       <c r="K35">
@@ -10487,7 +12353,7 @@
       <c r="M35">
         <v>39.799999999999997</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35">
         <v>29.1</v>
       </c>
     </row>
@@ -10504,7 +12370,7 @@
       <c r="G36">
         <v>65</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="1">
         <v>67</v>
       </c>
       <c r="K36">
@@ -10513,7 +12379,7 @@
       <c r="M36">
         <v>32.200000000000003</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36">
         <v>48.3</v>
       </c>
     </row>
@@ -10530,7 +12396,7 @@
       <c r="G37">
         <v>62</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="1">
         <v>61</v>
       </c>
       <c r="K37">
@@ -10539,7 +12405,7 @@
       <c r="M37">
         <v>43.7</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37">
         <v>31.2</v>
       </c>
     </row>
@@ -10556,7 +12422,7 @@
       <c r="G38">
         <v>66</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="1">
         <v>66</v>
       </c>
       <c r="K38">
@@ -10565,7 +12431,7 @@
       <c r="M38">
         <v>51.5</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38">
         <v>41.1</v>
       </c>
     </row>
@@ -10582,7 +12448,7 @@
       <c r="G39">
         <v>67</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="1">
         <v>66</v>
       </c>
       <c r="K39">
@@ -10591,7 +12457,7 @@
       <c r="M39">
         <v>45.7</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39">
         <v>38</v>
       </c>
     </row>
@@ -10612,10 +12478,10 @@
       <c r="G40">
         <v>66</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="1">
         <v>69</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40">
         <f>AVERAGE(A31:A40)</f>
         <v>13.5</v>
       </c>
@@ -10625,7 +12491,7 @@
       <c r="M40">
         <v>39.299999999999997</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40">
         <v>49.2</v>
       </c>
     </row>
@@ -10646,13 +12512,13 @@
       <c r="G41">
         <v>66</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="1">
         <v>64</v>
       </c>
       <c r="K41">
         <v>10.8</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41">
         <f>AVERAGE(E32:E41)</f>
         <v>47.6</v>
       </c>
@@ -10660,7 +12526,7 @@
         <f>MAX(M1:M40)</f>
         <v>64.8</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41">
         <v>30.4</v>
       </c>
     </row>
@@ -10677,7 +12543,7 @@
       <c r="K42">
         <v>15.1</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42">
         <f t="shared" ref="M42:M60" si="0">MAX(M2:M41)</f>
         <v>64.8</v>
       </c>
@@ -10695,7 +12561,7 @@
       <c r="K43">
         <v>15.9</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10713,7 +12579,7 @@
       <c r="K44">
         <v>13.7</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10731,7 +12597,7 @@
       <c r="K45">
         <v>20.8</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M45">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10749,7 +12615,7 @@
       <c r="K46">
         <v>26.5</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M46">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10767,7 +12633,7 @@
       <c r="K47">
         <v>21.4</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10785,7 +12651,7 @@
       <c r="K48">
         <v>40.299999999999997</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10803,7 +12669,7 @@
       <c r="K49">
         <v>31.9</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M49">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10822,14 +12688,14 @@
       <c r="E50">
         <v>39</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50">
         <f>AVERAGE(A41:A50)</f>
         <v>17.3</v>
       </c>
       <c r="K50">
         <v>22.4</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10851,11 +12717,11 @@
       <c r="K51">
         <v>33.9</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51">
         <f>AVERAGE(E42:E51)</f>
         <v>30.7</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M51">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10873,7 +12739,7 @@
       <c r="K52">
         <v>38</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M52">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10891,7 +12757,7 @@
       <c r="K53">
         <v>19.8</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10909,7 +12775,7 @@
       <c r="K54">
         <v>14.4</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M54">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10927,7 +12793,7 @@
       <c r="K55">
         <v>18.899999999999999</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10945,7 +12811,7 @@
       <c r="K56">
         <v>24</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M56">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10963,7 +12829,7 @@
       <c r="K57">
         <v>20.3</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10981,7 +12847,7 @@
       <c r="K58">
         <v>25.9</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M58">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -10999,7 +12865,7 @@
       <c r="K59">
         <v>33.4</v>
       </c>
-      <c r="M59" s="4">
+      <c r="M59">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -11018,14 +12884,14 @@
       <c r="E60">
         <v>30</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60">
         <f>AVERAGE(A51:A60)</f>
         <v>16.5</v>
       </c>
       <c r="K60">
         <v>41.1</v>
       </c>
-      <c r="M60" s="4">
+      <c r="M60">
         <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
@@ -11044,7 +12910,7 @@
         <f>MAX(E52:E61)</f>
         <v>60</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61">
         <f>AVERAGE(E52:E61)</f>
         <v>36.6</v>
       </c>
@@ -11124,7 +12990,7 @@
       <c r="E70">
         <v>38</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70">
         <f>AVERAGE(A61:A70)</f>
         <v>20.6</v>
       </c>
@@ -11140,7 +13006,7 @@
         <f>MAX(E62:E71)</f>
         <v>68</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L71">
         <f>AVERAGE(E62:E71)</f>
         <v>45.3</v>
       </c>
@@ -11220,7 +13086,7 @@
       <c r="E80">
         <v>19</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80">
         <f>AVERAGE(A71:A80)</f>
         <v>11.6</v>
       </c>
@@ -11236,7 +13102,7 @@
         <f>MAX(E72:E81)</f>
         <v>62</v>
       </c>
-      <c r="L81" s="4">
+      <c r="L81">
         <f>AVERAGE(E72:E81)</f>
         <v>42.9</v>
       </c>
@@ -11316,7 +13182,7 @@
       <c r="E90">
         <v>66</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90">
         <f>AVERAGE(A81:A90)</f>
         <v>13</v>
       </c>
@@ -11332,7 +13198,7 @@
         <f>MAX(E82:E91)</f>
         <v>66</v>
       </c>
-      <c r="L91" s="4">
+      <c r="L91">
         <f>AVERAGE(E82:E91)</f>
         <v>52.2</v>
       </c>
@@ -11412,7 +13278,7 @@
       <c r="E100">
         <v>30</v>
       </c>
-      <c r="J100" s="4">
+      <c r="J100">
         <f>AVERAGE(A91:A100)</f>
         <v>13.6</v>
       </c>
@@ -11428,7 +13294,7 @@
         <f>MAX(E92:E101)</f>
         <v>62</v>
       </c>
-      <c r="L101" s="4">
+      <c r="L101">
         <f>AVERAGE(E92:E101)</f>
         <v>33.700000000000003</v>
       </c>
@@ -11437,7 +13303,7 @@
       <c r="A102">
         <v>9</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102">
         <v>20</v>
       </c>
     </row>
@@ -11445,7 +13311,7 @@
       <c r="A103">
         <v>9</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103">
         <v>19</v>
       </c>
     </row>
@@ -11453,7 +13319,7 @@
       <c r="A104">
         <v>19</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104">
         <v>19</v>
       </c>
     </row>
@@ -11461,7 +13327,7 @@
       <c r="A105">
         <v>19</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105">
         <v>19</v>
       </c>
     </row>
@@ -11469,7 +13335,7 @@
       <c r="A106">
         <v>20</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106">
         <v>28</v>
       </c>
     </row>
@@ -11477,7 +13343,7 @@
       <c r="A107">
         <v>19</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107">
         <v>64</v>
       </c>
     </row>
@@ -11485,7 +13351,7 @@
       <c r="A108">
         <v>7</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108">
         <v>47</v>
       </c>
     </row>
@@ -11493,7 +13359,7 @@
       <c r="A109">
         <v>26</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109">
         <v>26</v>
       </c>
     </row>
@@ -11505,10 +13371,10 @@
         <f>MAX(A101:A110)</f>
         <v>26</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110">
         <v>66</v>
       </c>
-      <c r="J110" s="4">
+      <c r="J110">
         <f>AVERAGE(A101:A110)</f>
         <v>15.6</v>
       </c>
@@ -11517,14 +13383,14 @@
       <c r="A111">
         <v>9</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111">
         <v>66</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111">
         <f>MAX(E102:E111)</f>
         <v>66</v>
       </c>
-      <c r="L111" s="4">
+      <c r="L111">
         <f>AVERAGE(E102:E111)</f>
         <v>37.4</v>
       </c>
@@ -11533,7 +13399,7 @@
       <c r="A112">
         <v>8</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112">
         <v>62</v>
       </c>
     </row>
@@ -11541,7 +13407,7 @@
       <c r="A113">
         <v>17</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113">
         <v>69</v>
       </c>
     </row>
@@ -11549,7 +13415,7 @@
       <c r="A114">
         <v>9</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114">
         <v>49</v>
       </c>
     </row>
@@ -11557,7 +13423,7 @@
       <c r="A115">
         <v>9</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115">
         <v>30</v>
       </c>
     </row>
@@ -11565,7 +13431,7 @@
       <c r="A116">
         <v>8</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116">
         <v>19</v>
       </c>
     </row>
@@ -11573,7 +13439,7 @@
       <c r="A117">
         <v>19</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117">
         <v>20</v>
       </c>
     </row>
@@ -11581,7 +13447,7 @@
       <c r="A118">
         <v>5</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118">
         <v>66</v>
       </c>
     </row>
@@ -11589,7 +13455,7 @@
       <c r="A119">
         <v>9</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119">
         <v>60</v>
       </c>
     </row>
@@ -11601,10 +13467,10 @@
         <f>MAX(A111:A120)</f>
         <v>19</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120">
         <v>59</v>
       </c>
-      <c r="J120" s="4">
+      <c r="J120">
         <f>AVERAGE(A111:A120)</f>
         <v>9.8000000000000007</v>
       </c>
@@ -11613,14 +13479,14 @@
       <c r="A121">
         <v>4</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121">
         <v>30</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F121">
         <f>MAX(E112:E121)</f>
         <v>69</v>
       </c>
-      <c r="L121" s="4">
+      <c r="L121">
         <f>AVERAGE(E112:E121)</f>
         <v>46.4</v>
       </c>
@@ -11629,7 +13495,7 @@
       <c r="A122">
         <v>17</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122">
         <v>63</v>
       </c>
     </row>
@@ -11637,7 +13503,7 @@
       <c r="A123">
         <v>7</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123">
         <v>51</v>
       </c>
     </row>
@@ -11645,7 +13511,7 @@
       <c r="A124">
         <v>29</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124">
         <v>9</v>
       </c>
     </row>
@@ -11653,7 +13519,7 @@
       <c r="A125">
         <v>9</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125">
         <v>9</v>
       </c>
     </row>
@@ -11661,7 +13527,7 @@
       <c r="A126">
         <v>14</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126">
         <v>47</v>
       </c>
     </row>
@@ -11669,7 +13535,7 @@
       <c r="A127">
         <v>20</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127">
         <v>19</v>
       </c>
     </row>
@@ -11677,7 +13543,7 @@
       <c r="A128">
         <v>6</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128">
         <v>49</v>
       </c>
     </row>
@@ -11685,7 +13551,7 @@
       <c r="A129">
         <v>20</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129">
         <v>19</v>
       </c>
     </row>
@@ -11697,10 +13563,10 @@
         <f>MAX(A121:A130)</f>
         <v>29</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E130">
         <v>42</v>
       </c>
-      <c r="J130" s="4">
+      <c r="J130">
         <f>AVERAGE(A121:A130)</f>
         <v>14.3</v>
       </c>
@@ -11709,14 +13575,14 @@
       <c r="A131">
         <v>20</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131">
         <v>62</v>
       </c>
-      <c r="F131" s="4">
+      <c r="F131">
         <f>MAX(E122:E131)</f>
         <v>63</v>
       </c>
-      <c r="L131" s="4">
+      <c r="L131">
         <f>AVERAGE(E122:E131)</f>
         <v>37</v>
       </c>
@@ -11725,7 +13591,7 @@
       <c r="A132">
         <v>28</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132">
         <v>19</v>
       </c>
     </row>
@@ -11733,7 +13599,7 @@
       <c r="A133">
         <v>20</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133">
         <v>60</v>
       </c>
     </row>
@@ -11741,7 +13607,7 @@
       <c r="A134">
         <v>9</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134">
         <v>35</v>
       </c>
     </row>
@@ -11749,7 +13615,7 @@
       <c r="A135">
         <v>19</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135">
         <v>19</v>
       </c>
     </row>
@@ -11757,7 +13623,7 @@
       <c r="A136">
         <v>9</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136">
         <v>62</v>
       </c>
     </row>
@@ -11765,7 +13631,7 @@
       <c r="A137">
         <v>8</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137">
         <v>19</v>
       </c>
     </row>
@@ -11773,7 +13639,7 @@
       <c r="A138">
         <v>20</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138">
         <v>20</v>
       </c>
     </row>
@@ -11781,7 +13647,7 @@
       <c r="A139">
         <v>9</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139">
         <v>38</v>
       </c>
     </row>
@@ -11793,10 +13659,10 @@
         <f>MAX(A131:A140)</f>
         <v>29</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140">
         <v>62</v>
       </c>
-      <c r="J140" s="4">
+      <c r="J140">
         <f>AVERAGE(A131:A140)</f>
         <v>17.100000000000001</v>
       </c>
@@ -11805,14 +13671,14 @@
       <c r="A141">
         <v>6</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141">
         <v>62</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141">
         <f>MAX(E132:E141)</f>
         <v>62</v>
       </c>
-      <c r="L141" s="4">
+      <c r="L141">
         <f>AVERAGE(E132:E141)</f>
         <v>39.6</v>
       </c>
@@ -11821,7 +13687,7 @@
       <c r="A142">
         <v>9</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142">
         <v>31</v>
       </c>
     </row>
@@ -11829,7 +13695,7 @@
       <c r="A143">
         <v>5</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143">
         <v>19</v>
       </c>
     </row>
@@ -11837,7 +13703,7 @@
       <c r="A144">
         <v>9</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144">
         <v>46</v>
       </c>
     </row>
@@ -11845,7 +13711,7 @@
       <c r="A145">
         <v>20</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145">
         <v>65</v>
       </c>
     </row>
@@ -11853,7 +13719,7 @@
       <c r="A146">
         <v>19</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E146">
         <v>31</v>
       </c>
     </row>
@@ -11861,7 +13727,7 @@
       <c r="A147">
         <v>5</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147">
         <v>41</v>
       </c>
     </row>
@@ -11869,7 +13735,7 @@
       <c r="A148">
         <v>19</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148">
         <v>30</v>
       </c>
     </row>
@@ -11877,7 +13743,7 @@
       <c r="A149">
         <v>20</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149">
         <v>28</v>
       </c>
     </row>
@@ -11893,10 +13759,10 @@
         <f>AVERAGE(B1:B150)</f>
         <v>27.866666666666667</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150">
         <v>9</v>
       </c>
-      <c r="J150" s="4">
+      <c r="J150">
         <f>AVERAGE(A141:A150)</f>
         <v>12.1</v>
       </c>
@@ -11905,14 +13771,14 @@
       <c r="A151">
         <v>37</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151">
         <v>44</v>
       </c>
-      <c r="F151" s="4">
+      <c r="F151">
         <f>MAX(E142:E151)</f>
         <v>65</v>
       </c>
-      <c r="L151" s="4">
+      <c r="L151">
         <f>AVERAGE(E142:E151)</f>
         <v>34.4</v>
       </c>
@@ -11921,7 +13787,7 @@
       <c r="A152">
         <v>9</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152">
         <v>19</v>
       </c>
     </row>
@@ -11929,7 +13795,7 @@
       <c r="A153">
         <v>19</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153">
         <v>19</v>
       </c>
     </row>
@@ -11937,7 +13803,7 @@
       <c r="A154">
         <v>20</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154">
         <v>68</v>
       </c>
     </row>
@@ -11945,7 +13811,7 @@
       <c r="A155">
         <v>9</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155">
         <v>19</v>
       </c>
     </row>
@@ -11953,7 +13819,7 @@
       <c r="A156">
         <v>20</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156">
         <v>50</v>
       </c>
     </row>
@@ -11961,7 +13827,7 @@
       <c r="A157">
         <v>19</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157">
         <v>9</v>
       </c>
     </row>
@@ -11969,7 +13835,7 @@
       <c r="A158">
         <v>17</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E158">
         <v>18</v>
       </c>
     </row>
@@ -11977,7 +13843,7 @@
       <c r="A159">
         <v>20</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E159">
         <v>41</v>
       </c>
     </row>
@@ -11989,10 +13855,10 @@
         <f>MAX(A151:A160)</f>
         <v>37</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E160">
         <v>29</v>
       </c>
-      <c r="J160" s="4">
+      <c r="J160">
         <f>AVERAGE(A151:A160)</f>
         <v>19</v>
       </c>
@@ -12001,14 +13867,14 @@
       <c r="A161">
         <v>5</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E161">
         <v>65</v>
       </c>
-      <c r="F161" s="4">
+      <c r="F161">
         <f>MAX(E152:E161)</f>
         <v>68</v>
       </c>
-      <c r="L161" s="4">
+      <c r="L161">
         <f>AVERAGE(E152:E161)</f>
         <v>33.700000000000003</v>
       </c>
@@ -12017,7 +13883,7 @@
       <c r="A162">
         <v>18</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E162">
         <v>51</v>
       </c>
     </row>
@@ -12025,7 +13891,7 @@
       <c r="A163">
         <v>20</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E163">
         <v>62</v>
       </c>
     </row>
@@ -12033,7 +13899,7 @@
       <c r="A164">
         <v>5</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E164">
         <v>19</v>
       </c>
     </row>
@@ -12041,7 +13907,7 @@
       <c r="A165">
         <v>16</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165">
         <v>28</v>
       </c>
     </row>
@@ -12049,7 +13915,7 @@
       <c r="A166">
         <v>8</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E166">
         <v>19</v>
       </c>
     </row>
@@ -12057,7 +13923,7 @@
       <c r="A167">
         <v>20</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167">
         <v>19</v>
       </c>
     </row>
@@ -12065,7 +13931,7 @@
       <c r="A168">
         <v>30</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168">
         <v>65</v>
       </c>
     </row>
@@ -12073,7 +13939,7 @@
       <c r="A169">
         <v>20</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E169">
         <v>39</v>
       </c>
     </row>
@@ -12085,10 +13951,10 @@
         <f>MAX(A161:A170)</f>
         <v>30</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E170">
         <v>49</v>
       </c>
-      <c r="J170" s="4">
+      <c r="J170">
         <f>AVERAGE(A161:A170)</f>
         <v>16.2</v>
       </c>
@@ -12097,14 +13963,14 @@
       <c r="A171">
         <v>17</v>
       </c>
-      <c r="E171" s="4">
+      <c r="E171">
         <v>41</v>
       </c>
-      <c r="F171" s="4">
+      <c r="F171">
         <f>MAX(E162:E171)</f>
         <v>65</v>
       </c>
-      <c r="L171" s="4">
+      <c r="L171">
         <f>AVERAGE(E162:E171)</f>
         <v>39.200000000000003</v>
       </c>
@@ -12113,7 +13979,7 @@
       <c r="A172">
         <v>5</v>
       </c>
-      <c r="E172" s="4">
+      <c r="E172">
         <v>63</v>
       </c>
     </row>
@@ -12121,7 +13987,7 @@
       <c r="A173">
         <v>30</v>
       </c>
-      <c r="E173" s="4">
+      <c r="E173">
         <v>20</v>
       </c>
     </row>
@@ -12129,7 +13995,7 @@
       <c r="A174">
         <v>16</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174">
         <v>20</v>
       </c>
     </row>
@@ -12137,7 +14003,7 @@
       <c r="A175">
         <v>8</v>
       </c>
-      <c r="E175" s="4">
+      <c r="E175">
         <v>19</v>
       </c>
     </row>
@@ -12145,7 +14011,7 @@
       <c r="A176">
         <v>9</v>
       </c>
-      <c r="E176" s="4">
+      <c r="E176">
         <v>19</v>
       </c>
     </row>
@@ -12153,7 +14019,7 @@
       <c r="A177">
         <v>20</v>
       </c>
-      <c r="E177" s="4">
+      <c r="E177">
         <v>41</v>
       </c>
     </row>
@@ -12161,7 +14027,7 @@
       <c r="A178">
         <v>19</v>
       </c>
-      <c r="E178" s="4">
+      <c r="E178">
         <v>30</v>
       </c>
     </row>
@@ -12169,7 +14035,7 @@
       <c r="A179">
         <v>9</v>
       </c>
-      <c r="E179" s="4">
+      <c r="E179">
         <v>20</v>
       </c>
     </row>
@@ -12181,10 +14047,10 @@
         <f>MAX(A171:A180)</f>
         <v>30</v>
       </c>
-      <c r="E180" s="4">
+      <c r="E180">
         <v>18</v>
       </c>
-      <c r="J180" s="4">
+      <c r="J180">
         <f>AVERAGE(A171:A180)</f>
         <v>15.3</v>
       </c>
@@ -12193,14 +14059,14 @@
       <c r="A181">
         <v>20</v>
       </c>
-      <c r="E181" s="4">
+      <c r="E181">
         <v>62</v>
       </c>
-      <c r="F181" s="4">
+      <c r="F181">
         <f>MAX(E172:E181)</f>
         <v>63</v>
       </c>
-      <c r="L181" s="4">
+      <c r="L181">
         <f>AVERAGE(E172:E181)</f>
         <v>31.2</v>
       </c>
@@ -12209,7 +14075,7 @@
       <c r="A182">
         <v>40</v>
       </c>
-      <c r="E182" s="4">
+      <c r="E182">
         <v>52</v>
       </c>
     </row>
@@ -12217,7 +14083,7 @@
       <c r="A183">
         <v>27</v>
       </c>
-      <c r="E183" s="4">
+      <c r="E183">
         <v>19</v>
       </c>
     </row>
@@ -12225,7 +14091,7 @@
       <c r="A184">
         <v>20</v>
       </c>
-      <c r="E184" s="4">
+      <c r="E184">
         <v>45</v>
       </c>
     </row>
@@ -12233,7 +14099,7 @@
       <c r="A185">
         <v>8</v>
       </c>
-      <c r="E185" s="4">
+      <c r="E185">
         <v>37</v>
       </c>
     </row>
@@ -12241,7 +14107,7 @@
       <c r="A186">
         <v>20</v>
       </c>
-      <c r="E186" s="4">
+      <c r="E186">
         <v>48</v>
       </c>
     </row>
@@ -12249,7 +14115,7 @@
       <c r="A187">
         <v>5</v>
       </c>
-      <c r="E187" s="4">
+      <c r="E187">
         <v>19</v>
       </c>
     </row>
@@ -12257,7 +14123,7 @@
       <c r="A188">
         <v>20</v>
       </c>
-      <c r="E188" s="4">
+      <c r="E188">
         <v>61</v>
       </c>
     </row>
@@ -12265,7 +14131,7 @@
       <c r="A189">
         <v>20</v>
       </c>
-      <c r="E189" s="4">
+      <c r="E189">
         <v>63</v>
       </c>
     </row>
@@ -12277,10 +14143,10 @@
         <f>MAX(A181:A190)</f>
         <v>40</v>
       </c>
-      <c r="E190" s="4">
+      <c r="E190">
         <v>56</v>
       </c>
-      <c r="J190" s="4">
+      <c r="J190">
         <f>AVERAGE(A181:A190)</f>
         <v>19.600000000000001</v>
       </c>
@@ -12289,14 +14155,14 @@
       <c r="A191">
         <v>20</v>
       </c>
-      <c r="E191" s="4">
+      <c r="E191">
         <v>60</v>
       </c>
-      <c r="F191" s="4">
+      <c r="F191">
         <f>MAX(E182:E191)</f>
         <v>63</v>
       </c>
-      <c r="L191" s="4">
+      <c r="L191">
         <f>AVERAGE(E182:E191)</f>
         <v>46</v>
       </c>
@@ -12305,7 +14171,7 @@
       <c r="A192">
         <v>30</v>
       </c>
-      <c r="E192" s="4">
+      <c r="E192">
         <v>20</v>
       </c>
     </row>
@@ -12313,7 +14179,7 @@
       <c r="A193">
         <v>19</v>
       </c>
-      <c r="E193" s="4">
+      <c r="E193">
         <v>19</v>
       </c>
     </row>
@@ -12321,7 +14187,7 @@
       <c r="A194">
         <v>20</v>
       </c>
-      <c r="E194" s="4">
+      <c r="E194">
         <v>38</v>
       </c>
     </row>
@@ -12329,7 +14195,7 @@
       <c r="A195">
         <v>19</v>
       </c>
-      <c r="E195" s="4">
+      <c r="E195">
         <v>61</v>
       </c>
     </row>
@@ -12337,7 +14203,7 @@
       <c r="A196">
         <v>20</v>
       </c>
-      <c r="E196" s="4">
+      <c r="E196">
         <v>58</v>
       </c>
     </row>
@@ -12345,7 +14211,7 @@
       <c r="A197">
         <v>20</v>
       </c>
-      <c r="E197" s="4">
+      <c r="E197">
         <v>27</v>
       </c>
     </row>
@@ -12353,7 +14219,7 @@
       <c r="A198">
         <v>17</v>
       </c>
-      <c r="E198" s="4">
+      <c r="E198">
         <v>18</v>
       </c>
     </row>
@@ -12361,7 +14227,7 @@
       <c r="A199">
         <v>9</v>
       </c>
-      <c r="E199" s="4">
+      <c r="E199">
         <v>60</v>
       </c>
     </row>
@@ -12373,10 +14239,10 @@
         <f>MAX(A191:A200)</f>
         <v>30</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E200">
         <v>20</v>
       </c>
-      <c r="J200" s="4">
+      <c r="J200">
         <f>AVERAGE(A191:A200)</f>
         <v>19.399999999999999</v>
       </c>
@@ -12385,14 +14251,14 @@
       <c r="A201">
         <v>17</v>
       </c>
-      <c r="E201" s="4">
+      <c r="E201">
         <v>36</v>
       </c>
-      <c r="F201" s="4">
+      <c r="F201">
         <f>MAX(E192:E201)</f>
         <v>61</v>
       </c>
-      <c r="L201" s="4">
+      <c r="L201">
         <f>AVERAGE(E192:E201)</f>
         <v>35.700000000000003</v>
       </c>
@@ -12401,7 +14267,7 @@
       <c r="A202">
         <v>19</v>
       </c>
-      <c r="E202" s="4">
+      <c r="E202">
         <v>19</v>
       </c>
     </row>
@@ -12409,7 +14275,7 @@
       <c r="A203">
         <v>20</v>
       </c>
-      <c r="E203" s="4">
+      <c r="E203">
         <v>46</v>
       </c>
     </row>
@@ -12417,7 +14283,7 @@
       <c r="A204">
         <v>17</v>
       </c>
-      <c r="E204" s="4">
+      <c r="E204">
         <v>63</v>
       </c>
     </row>
@@ -12425,7 +14291,7 @@
       <c r="A205">
         <v>7</v>
       </c>
-      <c r="E205" s="4">
+      <c r="E205">
         <v>63</v>
       </c>
     </row>
@@ -12433,7 +14299,7 @@
       <c r="A206">
         <v>30</v>
       </c>
-      <c r="E206" s="4">
+      <c r="E206">
         <v>9</v>
       </c>
     </row>
@@ -12441,7 +14307,7 @@
       <c r="A207">
         <v>30</v>
       </c>
-      <c r="E207" s="4">
+      <c r="E207">
         <v>38</v>
       </c>
     </row>
@@ -12449,7 +14315,7 @@
       <c r="A208">
         <v>30</v>
       </c>
-      <c r="E208" s="4">
+      <c r="E208">
         <v>19</v>
       </c>
     </row>
@@ -12457,7 +14323,7 @@
       <c r="A209">
         <v>17</v>
       </c>
-      <c r="E209" s="4">
+      <c r="E209">
         <v>37</v>
       </c>
     </row>
@@ -12469,10 +14335,10 @@
         <f>MAX(A201:A210)</f>
         <v>30</v>
       </c>
-      <c r="E210" s="4">
+      <c r="E210">
         <v>59</v>
       </c>
-      <c r="J210" s="4">
+      <c r="J210">
         <f>AVERAGE(A201:A210)</f>
         <v>19.600000000000001</v>
       </c>
@@ -12481,14 +14347,14 @@
       <c r="A211">
         <v>17</v>
       </c>
-      <c r="E211" s="4">
+      <c r="E211">
         <v>57</v>
       </c>
-      <c r="F211" s="4">
+      <c r="F211">
         <f>MAX(E202:E211)</f>
         <v>63</v>
       </c>
-      <c r="L211" s="4">
+      <c r="L211">
         <f>AVERAGE(E202:E211)</f>
         <v>41</v>
       </c>
@@ -12497,7 +14363,7 @@
       <c r="A212">
         <v>18</v>
       </c>
-      <c r="E212" s="4">
+      <c r="E212">
         <v>57</v>
       </c>
     </row>
@@ -12505,7 +14371,7 @@
       <c r="A213">
         <v>19</v>
       </c>
-      <c r="E213" s="4">
+      <c r="E213">
         <v>19</v>
       </c>
     </row>
@@ -12513,7 +14379,7 @@
       <c r="A214">
         <v>20</v>
       </c>
-      <c r="E214" s="4">
+      <c r="E214">
         <v>63</v>
       </c>
     </row>
@@ -12521,7 +14387,7 @@
       <c r="A215">
         <v>20</v>
       </c>
-      <c r="E215" s="4">
+      <c r="E215">
         <v>64</v>
       </c>
     </row>
@@ -12529,7 +14395,7 @@
       <c r="A216">
         <v>18</v>
       </c>
-      <c r="E216" s="4">
+      <c r="E216">
         <v>64</v>
       </c>
     </row>
@@ -12537,7 +14403,7 @@
       <c r="A217">
         <v>30</v>
       </c>
-      <c r="E217" s="4">
+      <c r="E217">
         <v>55</v>
       </c>
     </row>
@@ -12545,7 +14411,7 @@
       <c r="A218">
         <v>19</v>
       </c>
-      <c r="E218" s="4">
+      <c r="E218">
         <v>8</v>
       </c>
     </row>
@@ -12553,7 +14419,7 @@
       <c r="A219">
         <v>17</v>
       </c>
-      <c r="E219" s="4">
+      <c r="E219">
         <v>39</v>
       </c>
     </row>
@@ -12565,10 +14431,10 @@
         <f>MAX(A211:A220)</f>
         <v>30</v>
       </c>
-      <c r="E220" s="4">
+      <c r="E220">
         <v>39</v>
       </c>
-      <c r="J220" s="4">
+      <c r="J220">
         <f>AVERAGE(A211:A220)</f>
         <v>19.8</v>
       </c>
@@ -12577,14 +14443,14 @@
       <c r="A221">
         <v>8</v>
       </c>
-      <c r="E221" s="4">
+      <c r="E221">
         <v>49</v>
       </c>
-      <c r="F221" s="4">
+      <c r="F221">
         <f>MAX(E212:E221)</f>
         <v>64</v>
       </c>
-      <c r="L221" s="4">
+      <c r="L221">
         <f>AVERAGE(E212:E221)</f>
         <v>45.7</v>
       </c>
@@ -12593,7 +14459,7 @@
       <c r="A222">
         <v>20</v>
       </c>
-      <c r="E222" s="4">
+      <c r="E222">
         <v>30</v>
       </c>
     </row>
@@ -12601,7 +14467,7 @@
       <c r="A223">
         <v>9</v>
       </c>
-      <c r="E223" s="4">
+      <c r="E223">
         <v>41</v>
       </c>
     </row>
@@ -12609,7 +14475,7 @@
       <c r="A224">
         <v>28</v>
       </c>
-      <c r="E224" s="4">
+      <c r="E224">
         <v>62</v>
       </c>
     </row>
@@ -12617,7 +14483,7 @@
       <c r="A225">
         <v>9</v>
       </c>
-      <c r="E225" s="4">
+      <c r="E225">
         <v>61</v>
       </c>
     </row>
@@ -12625,7 +14491,7 @@
       <c r="A226">
         <v>19</v>
       </c>
-      <c r="E226" s="4">
+      <c r="E226">
         <v>19</v>
       </c>
     </row>
@@ -12633,7 +14499,7 @@
       <c r="A227">
         <v>30</v>
       </c>
-      <c r="E227" s="4">
+      <c r="E227">
         <v>29</v>
       </c>
     </row>
@@ -12641,7 +14507,7 @@
       <c r="A228">
         <v>20</v>
       </c>
-      <c r="E228" s="4">
+      <c r="E228">
         <v>28</v>
       </c>
     </row>
@@ -12649,7 +14515,7 @@
       <c r="A229">
         <v>20</v>
       </c>
-      <c r="E229" s="4">
+      <c r="E229">
         <v>64</v>
       </c>
     </row>
@@ -12661,10 +14527,10 @@
         <f>MAX(A221:A230)</f>
         <v>30</v>
       </c>
-      <c r="E230" s="4">
+      <c r="E230">
         <v>59</v>
       </c>
-      <c r="J230" s="4">
+      <c r="J230">
         <f>AVERAGE(A221:A230)</f>
         <v>17.2</v>
       </c>
@@ -12673,14 +14539,14 @@
       <c r="A231">
         <v>20</v>
       </c>
-      <c r="E231" s="4">
+      <c r="E231">
         <v>66</v>
       </c>
-      <c r="F231" s="4">
+      <c r="F231">
         <f>MAX(E222:E231)</f>
         <v>66</v>
       </c>
-      <c r="L231" s="4">
+      <c r="L231">
         <f>AVERAGE(E222:E231)</f>
         <v>45.9</v>
       </c>
@@ -12689,7 +14555,7 @@
       <c r="A232">
         <v>19</v>
       </c>
-      <c r="E232" s="4">
+      <c r="E232">
         <v>37</v>
       </c>
     </row>
@@ -12697,7 +14563,7 @@
       <c r="A233">
         <v>47</v>
       </c>
-      <c r="E233" s="4">
+      <c r="E233">
         <v>62</v>
       </c>
     </row>
@@ -12705,7 +14571,7 @@
       <c r="A234">
         <v>30</v>
       </c>
-      <c r="E234" s="4">
+      <c r="E234">
         <v>38</v>
       </c>
     </row>
@@ -12713,7 +14579,7 @@
       <c r="A235">
         <v>19</v>
       </c>
-      <c r="E235" s="4">
+      <c r="E235">
         <v>69</v>
       </c>
     </row>
@@ -12721,7 +14587,7 @@
       <c r="A236">
         <v>31</v>
       </c>
-      <c r="E236" s="4">
+      <c r="E236">
         <v>19</v>
       </c>
     </row>
@@ -12729,7 +14595,7 @@
       <c r="A237">
         <v>19</v>
       </c>
-      <c r="E237" s="4">
+      <c r="E237">
         <v>59</v>
       </c>
     </row>
@@ -12737,7 +14603,7 @@
       <c r="A238">
         <v>19</v>
       </c>
-      <c r="E238" s="4">
+      <c r="E238">
         <v>59</v>
       </c>
     </row>
@@ -12745,7 +14611,7 @@
       <c r="A239">
         <v>23</v>
       </c>
-      <c r="E239" s="4">
+      <c r="E239">
         <v>51</v>
       </c>
     </row>
@@ -12757,27 +14623,26 @@
         <f>MAX(A231:A240)</f>
         <v>61</v>
       </c>
-      <c r="E240" s="4">
+      <c r="E240">
         <v>53</v>
       </c>
-      <c r="J240" s="4">
+      <c r="J240">
         <f>AVERAGE(A231:A240)</f>
         <v>28.8</v>
       </c>
-      <c r="L240" s="4"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>9</v>
       </c>
-      <c r="E241" s="4">
+      <c r="E241">
         <v>19</v>
       </c>
-      <c r="F241" s="4">
+      <c r="F241">
         <f>MAX(E232:E241)</f>
         <v>69</v>
       </c>
-      <c r="L241" s="4">
+      <c r="L241">
         <f>AVERAGE(E232:E241)</f>
         <v>46.6</v>
       </c>
@@ -12786,7 +14651,7 @@
       <c r="A242">
         <v>16</v>
       </c>
-      <c r="E242" s="4">
+      <c r="E242">
         <v>38</v>
       </c>
     </row>
@@ -12794,7 +14659,7 @@
       <c r="A243">
         <v>19</v>
       </c>
-      <c r="E243" s="4">
+      <c r="E243">
         <v>19</v>
       </c>
     </row>
@@ -12802,7 +14667,7 @@
       <c r="A244">
         <v>18</v>
       </c>
-      <c r="E244" s="4">
+      <c r="E244">
         <v>55</v>
       </c>
     </row>
@@ -12810,7 +14675,7 @@
       <c r="A245">
         <v>20</v>
       </c>
-      <c r="E245" s="4">
+      <c r="E245">
         <v>28</v>
       </c>
     </row>
@@ -12818,7 +14683,7 @@
       <c r="A246">
         <v>19</v>
       </c>
-      <c r="E246" s="4">
+      <c r="E246">
         <v>27</v>
       </c>
     </row>
@@ -12826,7 +14691,7 @@
       <c r="A247">
         <v>43</v>
       </c>
-      <c r="E247" s="4">
+      <c r="E247">
         <v>62</v>
       </c>
     </row>
@@ -12834,7 +14699,7 @@
       <c r="A248">
         <v>56</v>
       </c>
-      <c r="E248" s="4">
+      <c r="E248">
         <v>58</v>
       </c>
     </row>
@@ -12842,7 +14707,7 @@
       <c r="A249">
         <v>20</v>
       </c>
-      <c r="E249" s="4">
+      <c r="E249">
         <v>64</v>
       </c>
     </row>
@@ -12854,10 +14719,10 @@
         <f>MAX(A241:A250)</f>
         <v>56</v>
       </c>
-      <c r="E250" s="4">
+      <c r="E250">
         <v>66</v>
       </c>
-      <c r="J250" s="4">
+      <c r="J250">
         <f>AVERAGE(A241:A250)</f>
         <v>22.6</v>
       </c>
@@ -12866,14 +14731,14 @@
       <c r="A251">
         <v>10</v>
       </c>
-      <c r="E251" s="4">
+      <c r="E251">
         <v>30</v>
       </c>
-      <c r="F251" s="4">
+      <c r="F251">
         <f>MAX(E242:E251)</f>
         <v>66</v>
       </c>
-      <c r="L251" s="4">
+      <c r="L251">
         <f>AVERAGE(E242:E251)</f>
         <v>44.7</v>
       </c>
@@ -12882,7 +14747,7 @@
       <c r="A252">
         <v>59</v>
       </c>
-      <c r="E252" s="4">
+      <c r="E252">
         <v>19</v>
       </c>
     </row>
@@ -12890,7 +14755,7 @@
       <c r="A253">
         <v>37</v>
       </c>
-      <c r="E253" s="4">
+      <c r="E253">
         <v>19</v>
       </c>
     </row>
@@ -12898,7 +14763,7 @@
       <c r="A254">
         <v>10</v>
       </c>
-      <c r="E254" s="4">
+      <c r="E254">
         <v>39</v>
       </c>
     </row>
@@ -12906,7 +14771,7 @@
       <c r="A255">
         <v>43</v>
       </c>
-      <c r="E255" s="4">
+      <c r="E255">
         <v>28</v>
       </c>
     </row>
@@ -12914,7 +14779,7 @@
       <c r="A256">
         <v>18</v>
       </c>
-      <c r="E256" s="4">
+      <c r="E256">
         <v>37</v>
       </c>
     </row>
@@ -12922,7 +14787,7 @@
       <c r="A257">
         <v>47</v>
       </c>
-      <c r="E257" s="4">
+      <c r="E257">
         <v>62</v>
       </c>
     </row>
@@ -12930,7 +14795,7 @@
       <c r="A258">
         <v>14</v>
       </c>
-      <c r="E258" s="4">
+      <c r="E258">
         <v>59</v>
       </c>
     </row>
@@ -12938,7 +14803,7 @@
       <c r="A259">
         <v>21</v>
       </c>
-      <c r="E259" s="4">
+      <c r="E259">
         <v>39</v>
       </c>
     </row>
@@ -12950,10 +14815,10 @@
         <f>MAX(A251:A260)</f>
         <v>59</v>
       </c>
-      <c r="E260" s="4">
+      <c r="E260">
         <v>18</v>
       </c>
-      <c r="J260" s="4">
+      <c r="J260">
         <f>AVERAGE(A251:A260)</f>
         <v>26.4</v>
       </c>
@@ -12962,14 +14827,14 @@
       <c r="A261">
         <v>18</v>
       </c>
-      <c r="E261" s="4">
+      <c r="E261">
         <v>19</v>
       </c>
-      <c r="F261" s="4">
+      <c r="F261">
         <f>MAX(E252:E261)</f>
         <v>62</v>
       </c>
-      <c r="L261" s="4">
+      <c r="L261">
         <f>AVERAGE(E252:E261)</f>
         <v>33.9</v>
       </c>
@@ -12978,7 +14843,7 @@
       <c r="A262">
         <v>5</v>
       </c>
-      <c r="E262" s="4">
+      <c r="E262">
         <v>64</v>
       </c>
     </row>
@@ -12986,7 +14851,7 @@
       <c r="A263">
         <v>4</v>
       </c>
-      <c r="E263" s="4">
+      <c r="E263">
         <v>19</v>
       </c>
     </row>
@@ -12994,7 +14859,7 @@
       <c r="A264">
         <v>4</v>
       </c>
-      <c r="E264" s="4">
+      <c r="E264">
         <v>28</v>
       </c>
     </row>
@@ -13002,7 +14867,7 @@
       <c r="A265">
         <v>5</v>
       </c>
-      <c r="E265" s="4">
+      <c r="E265">
         <v>64</v>
       </c>
     </row>
@@ -13010,7 +14875,7 @@
       <c r="A266">
         <v>38</v>
       </c>
-      <c r="E266" s="4">
+      <c r="E266">
         <v>62</v>
       </c>
     </row>
@@ -13018,7 +14883,7 @@
       <c r="A267">
         <v>25</v>
       </c>
-      <c r="E267" s="4">
+      <c r="E267">
         <v>19</v>
       </c>
     </row>
@@ -13026,7 +14891,7 @@
       <c r="A268">
         <v>32</v>
       </c>
-      <c r="E268" s="4">
+      <c r="E268">
         <v>28</v>
       </c>
     </row>
@@ -13034,7 +14899,7 @@
       <c r="A269">
         <v>7</v>
       </c>
-      <c r="E269" s="4">
+      <c r="E269">
         <v>57</v>
       </c>
     </row>
@@ -13046,10 +14911,10 @@
         <f>MAX(A261:A270)</f>
         <v>38</v>
       </c>
-      <c r="E270" s="4">
+      <c r="E270">
         <v>38</v>
       </c>
-      <c r="J270" s="4">
+      <c r="J270">
         <f>AVERAGE(A261:A270)</f>
         <v>16.8</v>
       </c>
@@ -13058,14 +14923,14 @@
       <c r="A271">
         <v>7</v>
       </c>
-      <c r="E271" s="4">
+      <c r="E271">
         <v>38</v>
       </c>
-      <c r="F271" s="4">
+      <c r="F271">
         <f>MAX(E262:E271)</f>
         <v>64</v>
       </c>
-      <c r="L271" s="4">
+      <c r="L271">
         <f>AVERAGE(E262:E271)</f>
         <v>41.7</v>
       </c>
@@ -13074,7 +14939,7 @@
       <c r="A272">
         <v>27</v>
       </c>
-      <c r="E272" s="4">
+      <c r="E272">
         <v>39</v>
       </c>
     </row>
@@ -13082,7 +14947,7 @@
       <c r="A273">
         <v>8</v>
       </c>
-      <c r="E273" s="4">
+      <c r="E273">
         <v>63</v>
       </c>
     </row>
@@ -13090,7 +14955,7 @@
       <c r="A274">
         <v>40</v>
       </c>
-      <c r="E274" s="4">
+      <c r="E274">
         <v>28</v>
       </c>
     </row>
@@ -13098,7 +14963,7 @@
       <c r="A275">
         <v>5</v>
       </c>
-      <c r="E275" s="4">
+      <c r="E275">
         <v>66</v>
       </c>
     </row>
@@ -13106,7 +14971,7 @@
       <c r="A276">
         <v>6</v>
       </c>
-      <c r="E276" s="4">
+      <c r="E276">
         <v>61</v>
       </c>
     </row>
@@ -13114,7 +14979,7 @@
       <c r="A277">
         <v>6</v>
       </c>
-      <c r="E277" s="4">
+      <c r="E277">
         <v>41</v>
       </c>
     </row>
@@ -13122,7 +14987,7 @@
       <c r="A278">
         <v>5</v>
       </c>
-      <c r="E278" s="4">
+      <c r="E278">
         <v>51</v>
       </c>
     </row>
@@ -13130,7 +14995,7 @@
       <c r="A279">
         <v>4</v>
       </c>
-      <c r="E279" s="4">
+      <c r="E279">
         <v>8</v>
       </c>
     </row>
@@ -13142,10 +15007,10 @@
         <f>MAX(A271:A280)</f>
         <v>40</v>
       </c>
-      <c r="E280" s="4">
+      <c r="E280">
         <v>30</v>
       </c>
-      <c r="J280" s="4">
+      <c r="J280">
         <f>AVERAGE(A271:A280)</f>
         <v>11.3</v>
       </c>
@@ -13154,14 +15019,14 @@
       <c r="A281">
         <v>5</v>
       </c>
-      <c r="E281" s="4">
+      <c r="E281">
         <v>28</v>
       </c>
-      <c r="F281" s="4">
+      <c r="F281">
         <f>MAX(E272:E281)</f>
         <v>66</v>
       </c>
-      <c r="L281" s="4">
+      <c r="L281">
         <f>AVERAGE(E272:E281)</f>
         <v>41.5</v>
       </c>
@@ -13170,7 +15035,7 @@
       <c r="A282">
         <v>6</v>
       </c>
-      <c r="E282" s="4">
+      <c r="E282">
         <v>38</v>
       </c>
     </row>
@@ -13178,7 +15043,7 @@
       <c r="A283">
         <v>5</v>
       </c>
-      <c r="E283" s="4">
+      <c r="E283">
         <v>28</v>
       </c>
     </row>
@@ -13186,7 +15051,7 @@
       <c r="A284">
         <v>17</v>
       </c>
-      <c r="E284" s="4">
+      <c r="E284">
         <v>29</v>
       </c>
     </row>
@@ -13194,7 +15059,7 @@
       <c r="A285">
         <v>9</v>
       </c>
-      <c r="E285" s="4">
+      <c r="E285">
         <v>19</v>
       </c>
     </row>
@@ -13202,7 +15067,7 @@
       <c r="A286">
         <v>6</v>
       </c>
-      <c r="E286" s="4">
+      <c r="E286">
         <v>19</v>
       </c>
     </row>
@@ -13210,7 +15075,7 @@
       <c r="A287">
         <v>8</v>
       </c>
-      <c r="E287" s="4">
+      <c r="E287">
         <v>46</v>
       </c>
     </row>
@@ -13218,7 +15083,7 @@
       <c r="A288">
         <v>34</v>
       </c>
-      <c r="E288" s="4">
+      <c r="E288">
         <v>28</v>
       </c>
     </row>
@@ -13226,7 +15091,7 @@
       <c r="A289">
         <v>8</v>
       </c>
-      <c r="E289" s="4">
+      <c r="E289">
         <v>63</v>
       </c>
     </row>
@@ -13238,10 +15103,10 @@
         <f>MAX(A281:A290)</f>
         <v>42</v>
       </c>
-      <c r="E290" s="4">
+      <c r="E290">
         <v>19</v>
       </c>
-      <c r="J290" s="4">
+      <c r="J290">
         <f>AVERAGE(A281:A290)</f>
         <v>14</v>
       </c>
@@ -13250,14 +15115,14 @@
       <c r="A291">
         <v>20</v>
       </c>
-      <c r="E291" s="4">
+      <c r="E291">
         <v>30</v>
       </c>
-      <c r="F291" s="4">
+      <c r="F291">
         <f>MAX(E282:E291)</f>
         <v>63</v>
       </c>
-      <c r="L291" s="4">
+      <c r="L291">
         <f>AVERAGE(E282:E291)</f>
         <v>31.9</v>
       </c>
@@ -13266,7 +15131,7 @@
       <c r="A292">
         <v>17</v>
       </c>
-      <c r="E292" s="4">
+      <c r="E292">
         <v>30</v>
       </c>
     </row>
@@ -13274,7 +15139,7 @@
       <c r="A293">
         <v>35</v>
       </c>
-      <c r="E293" s="4">
+      <c r="E293">
         <v>69</v>
       </c>
     </row>
@@ -13282,7 +15147,7 @@
       <c r="A294">
         <v>57</v>
       </c>
-      <c r="E294" s="4">
+      <c r="E294">
         <v>27</v>
       </c>
     </row>
@@ -13290,7 +15155,7 @@
       <c r="A295">
         <v>34</v>
       </c>
-      <c r="E295" s="4">
+      <c r="E295">
         <v>38</v>
       </c>
     </row>
@@ -13298,7 +15163,7 @@
       <c r="A296">
         <v>7</v>
       </c>
-      <c r="E296" s="4">
+      <c r="E296">
         <v>19</v>
       </c>
     </row>
@@ -13306,7 +15171,7 @@
       <c r="A297">
         <v>8</v>
       </c>
-      <c r="E297" s="4">
+      <c r="E297">
         <v>19</v>
       </c>
     </row>
@@ -13314,7 +15179,7 @@
       <c r="A298">
         <v>8</v>
       </c>
-      <c r="E298" s="4">
+      <c r="E298">
         <v>18</v>
       </c>
     </row>
@@ -13322,7 +15187,7 @@
       <c r="A299">
         <v>42</v>
       </c>
-      <c r="E299" s="4">
+      <c r="E299">
         <v>19</v>
       </c>
     </row>
@@ -13338,10 +15203,10 @@
         <f>AVERAGE(B151:B300)</f>
         <v>40.666666666666664</v>
       </c>
-      <c r="E300" s="4">
+      <c r="E300">
         <v>28</v>
       </c>
-      <c r="J300" s="4">
+      <c r="J300">
         <f>AVERAGE(A291:A300)</f>
         <v>23.5</v>
       </c>
@@ -13350,14 +15215,14 @@
       <c r="A301">
         <v>30</v>
       </c>
-      <c r="E301" s="4">
+      <c r="E301">
         <v>48</v>
       </c>
-      <c r="F301" s="4">
+      <c r="F301">
         <f>MAX(E292:E301)</f>
         <v>69</v>
       </c>
-      <c r="L301" s="4">
+      <c r="L301">
         <f>AVERAGE(E292:E301)</f>
         <v>31.5</v>
       </c>
@@ -13366,7 +15231,7 @@
       <c r="A302">
         <v>7</v>
       </c>
-      <c r="E302" s="4">
+      <c r="E302">
         <v>64</v>
       </c>
     </row>
@@ -13374,7 +15239,7 @@
       <c r="A303">
         <v>8</v>
       </c>
-      <c r="E303" s="4">
+      <c r="E303">
         <v>20</v>
       </c>
     </row>
@@ -13382,7 +15247,7 @@
       <c r="A304">
         <v>27</v>
       </c>
-      <c r="E304" s="4">
+      <c r="E304">
         <v>68</v>
       </c>
     </row>
@@ -13390,7 +15255,7 @@
       <c r="A305">
         <v>7</v>
       </c>
-      <c r="E305" s="4">
+      <c r="E305">
         <v>55</v>
       </c>
     </row>
@@ -13398,7 +15263,7 @@
       <c r="A306">
         <v>7</v>
       </c>
-      <c r="E306" s="4">
+      <c r="E306">
         <v>64</v>
       </c>
     </row>
@@ -13406,7 +15271,7 @@
       <c r="A307">
         <v>50</v>
       </c>
-      <c r="E307" s="4">
+      <c r="E307">
         <v>64</v>
       </c>
     </row>
@@ -13414,7 +15279,7 @@
       <c r="A308">
         <v>18</v>
       </c>
-      <c r="E308" s="4">
+      <c r="E308">
         <v>60</v>
       </c>
     </row>
@@ -13422,7 +15287,7 @@
       <c r="A309">
         <v>9</v>
       </c>
-      <c r="E309" s="4">
+      <c r="E309">
         <v>9</v>
       </c>
     </row>
@@ -13434,10 +15299,10 @@
         <f>MAX(A301:A310)</f>
         <v>55</v>
       </c>
-      <c r="E310" s="4">
+      <c r="E310">
         <v>64</v>
       </c>
-      <c r="J310" s="4">
+      <c r="J310">
         <f>AVERAGE(A301:A310)</f>
         <v>21.8</v>
       </c>
@@ -13446,14 +15311,14 @@
       <c r="A311">
         <v>8</v>
       </c>
-      <c r="E311" s="4">
+      <c r="E311">
         <v>59</v>
       </c>
-      <c r="F311" s="4">
+      <c r="F311">
         <f>MAX(E302:E311)</f>
         <v>68</v>
       </c>
-      <c r="L311" s="4">
+      <c r="L311">
         <f>AVERAGE(E302:E311)</f>
         <v>52.7</v>
       </c>
@@ -13462,7 +15327,7 @@
       <c r="A312">
         <v>52</v>
       </c>
-      <c r="E312" s="4">
+      <c r="E312">
         <v>64</v>
       </c>
     </row>
@@ -13470,7 +15335,7 @@
       <c r="A313">
         <v>4</v>
       </c>
-      <c r="E313" s="4">
+      <c r="E313">
         <v>67</v>
       </c>
     </row>
@@ -13478,7 +15343,7 @@
       <c r="A314">
         <v>4</v>
       </c>
-      <c r="E314" s="4">
+      <c r="E314">
         <v>59</v>
       </c>
     </row>
@@ -13486,7 +15351,7 @@
       <c r="A315">
         <v>5</v>
       </c>
-      <c r="E315" s="4">
+      <c r="E315">
         <v>66</v>
       </c>
     </row>
@@ -13494,7 +15359,7 @@
       <c r="A316">
         <v>4</v>
       </c>
-      <c r="E316" s="4">
+      <c r="E316">
         <v>59</v>
       </c>
     </row>
@@ -13502,7 +15367,7 @@
       <c r="A317">
         <v>5</v>
       </c>
-      <c r="E317" s="4">
+      <c r="E317">
         <v>66</v>
       </c>
     </row>
@@ -13510,7 +15375,7 @@
       <c r="A318">
         <v>28</v>
       </c>
-      <c r="E318" s="4">
+      <c r="E318">
         <v>66</v>
       </c>
     </row>
@@ -13518,7 +15383,7 @@
       <c r="A319">
         <v>8</v>
       </c>
-      <c r="E319" s="4">
+      <c r="E319">
         <v>69</v>
       </c>
     </row>
@@ -13530,10 +15395,10 @@
         <f>MAX(A311:A320)</f>
         <v>52</v>
       </c>
-      <c r="E320" s="4">
+      <c r="E320">
         <v>66</v>
       </c>
-      <c r="J320" s="4">
+      <c r="J320">
         <f>AVERAGE(A311:A320)</f>
         <v>12.6</v>
       </c>
@@ -13542,14 +15407,14 @@
       <c r="A321">
         <v>9</v>
       </c>
-      <c r="E321" s="4">
+      <c r="E321">
         <v>66</v>
       </c>
-      <c r="F321" s="4">
+      <c r="F321">
         <f>MAX(E312:E321)</f>
         <v>69</v>
       </c>
-      <c r="L321" s="4">
+      <c r="L321">
         <f>AVERAGE(E312:E321)</f>
         <v>64.8</v>
       </c>
@@ -13558,7 +15423,7 @@
       <c r="A322">
         <v>8</v>
       </c>
-      <c r="E322" s="4">
+      <c r="E322">
         <v>19</v>
       </c>
     </row>
@@ -13566,7 +15431,7 @@
       <c r="A323">
         <v>6</v>
       </c>
-      <c r="E323" s="4">
+      <c r="E323">
         <v>64</v>
       </c>
     </row>
@@ -13574,7 +15439,7 @@
       <c r="A324">
         <v>6</v>
       </c>
-      <c r="E324" s="4">
+      <c r="E324">
         <v>20</v>
       </c>
     </row>
@@ -13582,7 +15447,7 @@
       <c r="A325">
         <v>8</v>
       </c>
-      <c r="E325" s="4">
+      <c r="E325">
         <v>19</v>
       </c>
     </row>
@@ -13590,7 +15455,7 @@
       <c r="A326">
         <v>25</v>
       </c>
-      <c r="E326" s="4">
+      <c r="E326">
         <v>18</v>
       </c>
     </row>
@@ -13598,7 +15463,7 @@
       <c r="A327">
         <v>49</v>
       </c>
-      <c r="E327" s="4">
+      <c r="E327">
         <v>29</v>
       </c>
     </row>
@@ -13606,7 +15471,7 @@
       <c r="A328">
         <v>4</v>
       </c>
-      <c r="E328" s="4">
+      <c r="E328">
         <v>62</v>
       </c>
     </row>
@@ -13614,7 +15479,7 @@
       <c r="A329">
         <v>9</v>
       </c>
-      <c r="E329" s="4">
+      <c r="E329">
         <v>38</v>
       </c>
     </row>
@@ -13626,10 +15491,10 @@
         <f>MAX(A321:A330)</f>
         <v>49</v>
       </c>
-      <c r="E330" s="4">
+      <c r="E330">
         <v>48</v>
       </c>
-      <c r="J330" s="4">
+      <c r="J330">
         <f>AVERAGE(A321:A330)</f>
         <v>13.2</v>
       </c>
@@ -13638,14 +15503,14 @@
       <c r="A331">
         <v>8</v>
       </c>
-      <c r="E331" s="4">
+      <c r="E331">
         <v>19</v>
       </c>
-      <c r="F331" s="4">
+      <c r="F331">
         <f>MAX(E322:E331)</f>
         <v>64</v>
       </c>
-      <c r="L331" s="4">
+      <c r="L331">
         <f>AVERAGE(E322:E331)</f>
         <v>33.6</v>
       </c>
@@ -13654,7 +15519,7 @@
       <c r="A332">
         <v>9</v>
       </c>
-      <c r="E332" s="4">
+      <c r="E332">
         <v>60</v>
       </c>
     </row>
@@ -13662,7 +15527,7 @@
       <c r="A333">
         <v>8</v>
       </c>
-      <c r="E333" s="4">
+      <c r="E333">
         <v>30</v>
       </c>
     </row>
@@ -13670,7 +15535,7 @@
       <c r="A334">
         <v>43</v>
       </c>
-      <c r="E334" s="4">
+      <c r="E334">
         <v>31</v>
       </c>
     </row>
@@ -13678,7 +15543,7 @@
       <c r="A335">
         <v>8</v>
       </c>
-      <c r="E335" s="4">
+      <c r="E335">
         <v>9</v>
       </c>
     </row>
@@ -13686,7 +15551,7 @@
       <c r="A336">
         <v>20</v>
       </c>
-      <c r="E336" s="4">
+      <c r="E336">
         <v>58</v>
       </c>
     </row>
@@ -13694,7 +15559,7 @@
       <c r="A337">
         <v>8</v>
       </c>
-      <c r="E337" s="4">
+      <c r="E337">
         <v>31</v>
       </c>
     </row>
@@ -13702,7 +15567,7 @@
       <c r="A338">
         <v>8</v>
       </c>
-      <c r="E338" s="4">
+      <c r="E338">
         <v>66</v>
       </c>
     </row>
@@ -13710,7 +15575,7 @@
       <c r="A339">
         <v>7</v>
       </c>
-      <c r="E339" s="4">
+      <c r="E339">
         <v>67</v>
       </c>
     </row>
@@ -13722,10 +15587,10 @@
         <f>MAX(A331:A340)</f>
         <v>43</v>
       </c>
-      <c r="E340" s="4">
+      <c r="E340">
         <v>64</v>
       </c>
-      <c r="J340" s="4">
+      <c r="J340">
         <f>AVERAGE(A331:A340)</f>
         <v>12.4</v>
       </c>
@@ -13734,14 +15599,14 @@
       <c r="A341">
         <v>10</v>
       </c>
-      <c r="E341" s="4">
+      <c r="E341">
         <v>29</v>
       </c>
-      <c r="F341" s="4">
+      <c r="F341">
         <f>MAX(E332:E341)</f>
         <v>67</v>
       </c>
-      <c r="L341" s="4">
+      <c r="L341">
         <f>AVERAGE(E332:E341)</f>
         <v>44.5</v>
       </c>
@@ -13750,7 +15615,7 @@
       <c r="A342">
         <v>23</v>
       </c>
-      <c r="E342" s="4">
+      <c r="E342">
         <v>29</v>
       </c>
     </row>
@@ -13758,7 +15623,7 @@
       <c r="A343">
         <v>9</v>
       </c>
-      <c r="E343" s="4">
+      <c r="E343">
         <v>39</v>
       </c>
     </row>
@@ -13766,7 +15631,7 @@
       <c r="A344">
         <v>9</v>
       </c>
-      <c r="E344" s="4">
+      <c r="E344">
         <v>60</v>
       </c>
     </row>
@@ -13774,7 +15639,7 @@
       <c r="A345">
         <v>8</v>
       </c>
-      <c r="E345" s="4">
+      <c r="E345">
         <v>28</v>
       </c>
     </row>
@@ -13782,7 +15647,7 @@
       <c r="A346">
         <v>19</v>
       </c>
-      <c r="E346" s="4">
+      <c r="E346">
         <v>65</v>
       </c>
     </row>
@@ -13790,7 +15655,7 @@
       <c r="A347">
         <v>8</v>
       </c>
-      <c r="E347" s="4">
+      <c r="E347">
         <v>28</v>
       </c>
     </row>
@@ -13798,7 +15663,7 @@
       <c r="A348">
         <v>8</v>
       </c>
-      <c r="E348" s="4">
+      <c r="E348">
         <v>37</v>
       </c>
     </row>
@@ -13806,7 +15671,7 @@
       <c r="A349">
         <v>8</v>
       </c>
-      <c r="E349" s="4">
+      <c r="E349">
         <v>18</v>
       </c>
     </row>
@@ -13818,10 +15683,10 @@
         <f>MAX(A341:A350)</f>
         <v>23</v>
       </c>
-      <c r="E350" s="4">
+      <c r="E350">
         <v>31</v>
       </c>
-      <c r="J350" s="4">
+      <c r="J350">
         <f>AVERAGE(A341:A350)</f>
         <v>11</v>
       </c>
@@ -13830,14 +15695,14 @@
       <c r="A351">
         <v>8</v>
       </c>
-      <c r="E351" s="4">
+      <c r="E351">
         <v>63</v>
       </c>
-      <c r="F351" s="4">
+      <c r="F351">
         <f>MAX(E342:E351)</f>
         <v>65</v>
       </c>
-      <c r="L351" s="4">
+      <c r="L351">
         <f>AVERAGE(E342:E351)</f>
         <v>39.799999999999997</v>
       </c>
@@ -13846,7 +15711,7 @@
       <c r="A352">
         <v>9</v>
       </c>
-      <c r="E352" s="4">
+      <c r="E352">
         <v>37</v>
       </c>
     </row>
@@ -13854,7 +15719,7 @@
       <c r="A353">
         <v>37</v>
       </c>
-      <c r="E353" s="4">
+      <c r="E353">
         <v>41</v>
       </c>
     </row>
@@ -13862,7 +15727,7 @@
       <c r="A354">
         <v>10</v>
       </c>
-      <c r="E354" s="4">
+      <c r="E354">
         <v>9</v>
       </c>
     </row>
@@ -13870,7 +15735,7 @@
       <c r="A355">
         <v>9</v>
       </c>
-      <c r="E355" s="4">
+      <c r="E355">
         <v>62</v>
       </c>
     </row>
@@ -13878,7 +15743,7 @@
       <c r="A356">
         <v>9</v>
       </c>
-      <c r="E356" s="4">
+      <c r="E356">
         <v>57</v>
       </c>
     </row>
@@ -13886,7 +15751,7 @@
       <c r="A357">
         <v>26</v>
       </c>
-      <c r="E357" s="4">
+      <c r="E357">
         <v>39</v>
       </c>
     </row>
@@ -13894,7 +15759,7 @@
       <c r="A358">
         <v>7</v>
       </c>
-      <c r="E358" s="4">
+      <c r="E358">
         <v>18</v>
       </c>
     </row>
@@ -13902,7 +15767,7 @@
       <c r="A359">
         <v>8</v>
       </c>
-      <c r="E359" s="4">
+      <c r="E359">
         <v>51</v>
       </c>
     </row>
@@ -13914,10 +15779,10 @@
         <f>MAX(A351:A360)</f>
         <v>37</v>
       </c>
-      <c r="E360" s="4">
+      <c r="E360">
         <v>4</v>
       </c>
-      <c r="J360" s="4">
+      <c r="J360">
         <f>AVERAGE(A351:A360)</f>
         <v>13.2</v>
       </c>
@@ -13926,14 +15791,14 @@
       <c r="A361">
         <v>31</v>
       </c>
-      <c r="E361" s="4">
+      <c r="E361">
         <v>4</v>
       </c>
-      <c r="F361" s="4">
+      <c r="F361">
         <f>MAX(E352:E361)</f>
         <v>62</v>
       </c>
-      <c r="L361" s="4">
+      <c r="L361">
         <f>AVERAGE(E352:E361)</f>
         <v>32.200000000000003</v>
       </c>
@@ -13942,7 +15807,7 @@
       <c r="A362">
         <v>19</v>
       </c>
-      <c r="E362" s="4">
+      <c r="E362">
         <v>60</v>
       </c>
     </row>
@@ -13950,7 +15815,7 @@
       <c r="A363">
         <v>8</v>
       </c>
-      <c r="E363" s="4">
+      <c r="E363">
         <v>19</v>
       </c>
     </row>
@@ -13958,7 +15823,7 @@
       <c r="A364">
         <v>8</v>
       </c>
-      <c r="E364" s="4">
+      <c r="E364">
         <v>28</v>
       </c>
     </row>
@@ -13966,7 +15831,7 @@
       <c r="A365">
         <v>8</v>
       </c>
-      <c r="E365" s="4">
+      <c r="E365">
         <v>27</v>
       </c>
     </row>
@@ -13974,7 +15839,7 @@
       <c r="A366">
         <v>7</v>
       </c>
-      <c r="E366" s="4">
+      <c r="E366">
         <v>25</v>
       </c>
     </row>
@@ -13982,7 +15847,7 @@
       <c r="A367">
         <v>8</v>
       </c>
-      <c r="E367" s="4">
+      <c r="E367">
         <v>57</v>
       </c>
     </row>
@@ -13990,7 +15855,7 @@
       <c r="A368">
         <v>9</v>
       </c>
-      <c r="E368" s="4">
+      <c r="E368">
         <v>38</v>
       </c>
     </row>
@@ -13998,7 +15863,7 @@
       <c r="A369">
         <v>19</v>
       </c>
-      <c r="E369" s="4">
+      <c r="E369">
         <v>61</v>
       </c>
     </row>
@@ -14010,10 +15875,10 @@
         <f>MAX(A361:A370)</f>
         <v>31</v>
       </c>
-      <c r="E370" s="4">
+      <c r="E370">
         <v>66</v>
       </c>
-      <c r="J370" s="4">
+      <c r="J370">
         <f>AVERAGE(A361:A370)</f>
         <v>12.4</v>
       </c>
@@ -14022,14 +15887,14 @@
       <c r="A371">
         <v>38</v>
       </c>
-      <c r="E371" s="4">
+      <c r="E371">
         <v>56</v>
       </c>
-      <c r="F371" s="4">
+      <c r="F371">
         <f>MAX(E362:E371)</f>
         <v>66</v>
       </c>
-      <c r="L371" s="4">
+      <c r="L371">
         <f>AVERAGE(E362:E371)</f>
         <v>43.7</v>
       </c>
@@ -14038,7 +15903,7 @@
       <c r="A372">
         <v>9</v>
       </c>
-      <c r="E372" s="4">
+      <c r="E372">
         <v>63</v>
       </c>
     </row>
@@ -14046,7 +15911,7 @@
       <c r="A373">
         <v>5</v>
       </c>
-      <c r="E373" s="4">
+      <c r="E373">
         <v>9</v>
       </c>
     </row>
@@ -14054,7 +15919,7 @@
       <c r="A374">
         <v>6</v>
       </c>
-      <c r="E374" s="4">
+      <c r="E374">
         <v>54</v>
       </c>
     </row>
@@ -14062,7 +15927,7 @@
       <c r="A375">
         <v>9</v>
       </c>
-      <c r="E375" s="4">
+      <c r="E375">
         <v>61</v>
       </c>
     </row>
@@ -14070,7 +15935,7 @@
       <c r="A376">
         <v>9</v>
       </c>
-      <c r="E376" s="4">
+      <c r="E376">
         <v>28</v>
       </c>
     </row>
@@ -14078,7 +15943,7 @@
       <c r="A377">
         <v>30</v>
       </c>
-      <c r="E377" s="4">
+      <c r="E377">
         <v>49</v>
       </c>
     </row>
@@ -14086,7 +15951,7 @@
       <c r="A378">
         <v>26</v>
       </c>
-      <c r="E378" s="4">
+      <c r="E378">
         <v>66</v>
       </c>
     </row>
@@ -14094,7 +15959,7 @@
       <c r="A379">
         <v>40</v>
       </c>
-      <c r="E379" s="4">
+      <c r="E379">
         <v>59</v>
       </c>
     </row>
@@ -14106,10 +15971,10 @@
         <f>MAX(A371:A380)</f>
         <v>40</v>
       </c>
-      <c r="E380" s="4">
+      <c r="E380">
         <v>67</v>
       </c>
-      <c r="J380" s="4">
+      <c r="J380">
         <f>AVERAGE(A371:A380)</f>
         <v>18</v>
       </c>
@@ -14118,14 +15983,14 @@
       <c r="A381">
         <v>9</v>
       </c>
-      <c r="E381" s="4">
+      <c r="E381">
         <v>59</v>
       </c>
-      <c r="F381" s="4">
+      <c r="F381">
         <f>MAX(E372:E381)</f>
         <v>67</v>
       </c>
-      <c r="L381" s="4">
+      <c r="L381">
         <f>AVERAGE(E372:E381)</f>
         <v>51.5</v>
       </c>
@@ -14134,7 +15999,7 @@
       <c r="A382">
         <v>7</v>
       </c>
-      <c r="E382" s="4">
+      <c r="E382">
         <v>30</v>
       </c>
     </row>
@@ -14142,7 +16007,7 @@
       <c r="A383">
         <v>30</v>
       </c>
-      <c r="E383" s="4">
+      <c r="E383">
         <v>62</v>
       </c>
     </row>
@@ -14150,7 +16015,7 @@
       <c r="A384">
         <v>8</v>
       </c>
-      <c r="E384" s="4">
+      <c r="E384">
         <v>30</v>
       </c>
     </row>
@@ -14158,7 +16023,7 @@
       <c r="A385">
         <v>47</v>
       </c>
-      <c r="E385" s="4">
+      <c r="E385">
         <v>66</v>
       </c>
     </row>
@@ -14166,7 +16031,7 @@
       <c r="A386">
         <v>8</v>
       </c>
-      <c r="E386" s="4">
+      <c r="E386">
         <v>51</v>
       </c>
     </row>
@@ -14174,7 +16039,7 @@
       <c r="A387">
         <v>8</v>
       </c>
-      <c r="E387" s="4">
+      <c r="E387">
         <v>8</v>
       </c>
     </row>
@@ -14182,7 +16047,7 @@
       <c r="A388">
         <v>19</v>
       </c>
-      <c r="E388" s="4">
+      <c r="E388">
         <v>46</v>
       </c>
     </row>
@@ -14190,7 +16055,7 @@
       <c r="A389">
         <v>32</v>
       </c>
-      <c r="E389" s="4">
+      <c r="E389">
         <v>63</v>
       </c>
     </row>
@@ -14202,10 +16067,10 @@
         <f>MAX(A381:A390)</f>
         <v>47</v>
       </c>
-      <c r="E390" s="4">
+      <c r="E390">
         <v>63</v>
       </c>
-      <c r="J390" s="4">
+      <c r="J390">
         <f>AVERAGE(A381:A390)</f>
         <v>21.5</v>
       </c>
@@ -14214,14 +16079,14 @@
       <c r="A391">
         <v>25</v>
       </c>
-      <c r="E391" s="4">
+      <c r="E391">
         <v>38</v>
       </c>
-      <c r="F391" s="4">
+      <c r="F391">
         <f>MAX(E382:E391)</f>
         <v>66</v>
       </c>
-      <c r="L391" s="4">
+      <c r="L391">
         <f>AVERAGE(E382:E391)</f>
         <v>45.7</v>
       </c>
@@ -14230,7 +16095,7 @@
       <c r="A392">
         <v>5</v>
       </c>
-      <c r="E392" s="4">
+      <c r="E392">
         <v>63</v>
       </c>
     </row>
@@ -14238,7 +16103,7 @@
       <c r="A393">
         <v>6</v>
       </c>
-      <c r="E393" s="4">
+      <c r="E393">
         <v>19</v>
       </c>
     </row>
@@ -14246,7 +16111,7 @@
       <c r="A394">
         <v>15</v>
       </c>
-      <c r="E394" s="4">
+      <c r="E394">
         <v>19</v>
       </c>
     </row>
@@ -14254,7 +16119,7 @@
       <c r="A395">
         <v>9</v>
       </c>
-      <c r="E395" s="4">
+      <c r="E395">
         <v>66</v>
       </c>
     </row>
@@ -14262,7 +16127,7 @@
       <c r="A396">
         <v>8</v>
       </c>
-      <c r="E396" s="4">
+      <c r="E396">
         <v>28</v>
       </c>
     </row>
@@ -14270,7 +16135,7 @@
       <c r="A397">
         <v>8</v>
       </c>
-      <c r="E397" s="4">
+      <c r="E397">
         <v>57</v>
       </c>
     </row>
@@ -14278,7 +16143,7 @@
       <c r="A398">
         <v>4</v>
       </c>
-      <c r="E398" s="4">
+      <c r="E398">
         <v>39</v>
       </c>
     </row>
@@ -14286,7 +16151,7 @@
       <c r="A399">
         <v>48</v>
       </c>
-      <c r="E399" s="4">
+      <c r="E399">
         <v>19</v>
       </c>
     </row>
@@ -14298,10 +16163,10 @@
         <f>MAX(A391:A400)</f>
         <v>48</v>
       </c>
-      <c r="E400" s="4">
+      <c r="E400">
         <v>64</v>
       </c>
-      <c r="J400" s="4">
+      <c r="J400">
         <f>AVERAGE(A391:A400)</f>
         <v>13.6</v>
       </c>
@@ -14310,14 +16175,14 @@
       <c r="A401">
         <v>7</v>
       </c>
-      <c r="E401" s="4">
+      <c r="E401">
         <v>19</v>
       </c>
-      <c r="F401" s="4">
+      <c r="F401">
         <f>MAX(E392:E401)</f>
         <v>66</v>
       </c>
-      <c r="L401" s="4">
+      <c r="L401">
         <f>AVERAGE(E392:E401)</f>
         <v>39.299999999999997</v>
       </c>
@@ -14370,7 +16235,7 @@
         <f>MAX(A401:A410)</f>
         <v>36</v>
       </c>
-      <c r="J410" s="4">
+      <c r="J410">
         <f>AVERAGE(A401:A410)</f>
         <v>10.8</v>
       </c>
@@ -14379,7 +16244,6 @@
       <c r="A411">
         <v>9</v>
       </c>
-      <c r="L411" s="4"/>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412">
@@ -14429,7 +16293,7 @@
         <f>MAX(A411:A420)</f>
         <v>30</v>
       </c>
-      <c r="J420" s="4">
+      <c r="J420">
         <f>AVERAGE(A411:A420)</f>
         <v>15.1</v>
       </c>
@@ -14487,7 +16351,7 @@
         <f>MAX(A421:A430)</f>
         <v>39</v>
       </c>
-      <c r="J430" s="4">
+      <c r="J430">
         <f>AVERAGE(A421:A430)</f>
         <v>15.9</v>
       </c>
@@ -14545,7 +16409,7 @@
         <f>MAX(A431:A440)</f>
         <v>43</v>
       </c>
-      <c r="J440" s="4">
+      <c r="J440">
         <f>AVERAGE(A431:A440)</f>
         <v>13.7</v>
       </c>
@@ -14607,7 +16471,7 @@
         <f>AVERAGE(B301:B450)</f>
         <v>41.8</v>
       </c>
-      <c r="J450" s="4">
+      <c r="J450">
         <f>AVERAGE(A441:A450)</f>
         <v>20.8</v>
       </c>
@@ -14665,7 +16529,7 @@
         <f>MAX(A451:A460)</f>
         <v>63</v>
       </c>
-      <c r="J460" s="4">
+      <c r="J460">
         <f>AVERAGE(A451:A460)</f>
         <v>26.5</v>
       </c>
@@ -14723,7 +16587,7 @@
         <f>MAX(A461:A470)</f>
         <v>59</v>
       </c>
-      <c r="J470" s="4">
+      <c r="J470">
         <f>AVERAGE(A461:A470)</f>
         <v>21.4</v>
       </c>
@@ -14781,7 +16645,7 @@
         <f>MAX(A471:A480)</f>
         <v>64</v>
       </c>
-      <c r="J480" s="4">
+      <c r="J480">
         <f>AVERAGE(A471:A480)</f>
         <v>40.299999999999997</v>
       </c>
@@ -14839,7 +16703,7 @@
         <f>MAX(A481:A490)</f>
         <v>62</v>
       </c>
-      <c r="J490" s="4">
+      <c r="J490">
         <f>AVERAGE(A481:A490)</f>
         <v>31.9</v>
       </c>
@@ -14897,7 +16761,7 @@
         <f>MAX(A491:A500)</f>
         <v>42</v>
       </c>
-      <c r="J500" s="4">
+      <c r="J500">
         <f>AVERAGE(A491:A500)</f>
         <v>22.4</v>
       </c>
@@ -14955,7 +16819,7 @@
         <f>MAX(A501:A510)</f>
         <v>55</v>
       </c>
-      <c r="J510" s="4">
+      <c r="J510">
         <f>AVERAGE(A501:A510)</f>
         <v>33.9</v>
       </c>
@@ -15013,7 +16877,7 @@
         <f>MAX(A511:A520)</f>
         <v>65</v>
       </c>
-      <c r="J520" s="4">
+      <c r="J520">
         <f>AVERAGE(A511:A520)</f>
         <v>38</v>
       </c>
@@ -15071,7 +16935,7 @@
         <f>MAX(A521:A530)</f>
         <v>59</v>
       </c>
-      <c r="J530" s="4">
+      <c r="J530">
         <f>AVERAGE(A521:A530)</f>
         <v>19.8</v>
       </c>
@@ -15129,7 +16993,7 @@
         <f>MAX(A531:A540)</f>
         <v>47</v>
       </c>
-      <c r="J540" s="4">
+      <c r="J540">
         <f>AVERAGE(A531:A540)</f>
         <v>14.4</v>
       </c>
@@ -15187,7 +17051,7 @@
         <f>MAX(A541:A550)</f>
         <v>42</v>
       </c>
-      <c r="J550" s="4">
+      <c r="J550">
         <f>AVERAGE(A541:A550)</f>
         <v>18.899999999999999</v>
       </c>
@@ -15245,7 +17109,7 @@
         <f>MAX(A551:A560)</f>
         <v>71</v>
       </c>
-      <c r="J560" s="4">
+      <c r="J560">
         <f>AVERAGE(A551:A560)</f>
         <v>24</v>
       </c>
@@ -15303,7 +17167,7 @@
         <f>MAX(A561:A570)</f>
         <v>49</v>
       </c>
-      <c r="J570" s="4">
+      <c r="J570">
         <f>AVERAGE(A561:A570)</f>
         <v>20.3</v>
       </c>
@@ -15361,7 +17225,7 @@
         <f>MAX(A571:A580)</f>
         <v>60</v>
       </c>
-      <c r="J580" s="4">
+      <c r="J580">
         <f>AVERAGE(A571:A580)</f>
         <v>25.9</v>
       </c>
@@ -15419,7 +17283,7 @@
         <f>MAX(A581:A590)</f>
         <v>66</v>
       </c>
-      <c r="J590" s="4">
+      <c r="J590">
         <f>AVERAGE(A581:A590)</f>
         <v>33.4</v>
       </c>
@@ -15481,7 +17345,7 @@
         <f>AVERAGE(B451:B600)</f>
         <v>57.733333333333334</v>
       </c>
-      <c r="J600" s="4">
+      <c r="J600">
         <f>AVERAGE(A591:A600)</f>
         <v>41.1</v>
       </c>
